--- a/input_IES.xlsx
+++ b/input_IES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7471581E-3032-4671-87A1-373570FCB740}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>交流负荷</t>
-  </si>
-  <si>
-    <t>直流负荷</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>光伏出力</t>
   </si>
@@ -48,11 +43,15 @@
     <t>dtime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>电负荷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,7 +735,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$H$1</c:f>
+              <c:f>input!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$H$2:$H$97</c:f>
+              <c:f>input!$G$2:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1066,7 +1065,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$G$1</c:f>
+              <c:f>input!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1089,7 +1088,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$G$2:$G$97</c:f>
+              <c:f>input!$F$2:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1396,7 +1395,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$F$1</c:f>
+              <c:f>input!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,7 +1418,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$F$2:$F$97</c:f>
+              <c:f>input!$E$2:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1726,7 +1725,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$E$1</c:f>
+              <c:f>input!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1749,7 +1748,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$E$2:$E$97</c:f>
+              <c:f>input!$D$2:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2309,13 +2308,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2642,2540 +2641,2249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000</v>
       </c>
       <c r="B2">
-        <v>19.5682133</v>
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>0.35220001000000001</v>
+      </c>
+      <c r="D2">
+        <v>1549.28</v>
+      </c>
+      <c r="E2">
+        <v>808.4</v>
+      </c>
+      <c r="F2">
+        <v>3623.4076</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0.35220001000000001</v>
-      </c>
-      <c r="E2">
-        <v>1549.28</v>
-      </c>
-      <c r="F2">
-        <v>808.4</v>
-      </c>
-      <c r="G2">
-        <v>3623.4076</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4525</v>
       </c>
       <c r="B3">
-        <v>19.346941950000001</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D3">
-        <v>0.35220001000000001</v>
+        <v>1551.28</v>
       </c>
       <c r="E3">
-        <v>1551.28</v>
+        <v>810.42399999999998</v>
       </c>
       <c r="F3">
-        <v>810.42399999999998</v>
+        <v>3650.4076</v>
       </c>
       <c r="G3">
-        <v>3650.4076</v>
-      </c>
-      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4050</v>
       </c>
       <c r="B4">
-        <v>19.125670599999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D4">
-        <v>0.35220001000000001</v>
+        <v>1553.28</v>
       </c>
       <c r="E4">
-        <v>1553.28</v>
+        <v>812.44799999999998</v>
       </c>
       <c r="F4">
-        <v>812.44799999999998</v>
+        <v>3677.4076</v>
       </c>
       <c r="G4">
-        <v>3677.4076</v>
-      </c>
-      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4775</v>
       </c>
       <c r="B5">
-        <v>19.166312300000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D5">
-        <v>0.35220001000000001</v>
+        <v>1555.28</v>
       </c>
       <c r="E5">
-        <v>1555.28</v>
+        <v>814.47199999999998</v>
       </c>
       <c r="F5">
-        <v>814.47199999999998</v>
+        <v>3704.4076</v>
       </c>
       <c r="G5">
-        <v>3704.4076</v>
-      </c>
-      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5500</v>
       </c>
       <c r="B6">
-        <v>19.206954</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D6">
-        <v>0.35220001000000001</v>
+        <v>1557.28</v>
       </c>
       <c r="E6">
-        <v>1557.28</v>
+        <v>796.49599999999998</v>
       </c>
       <c r="F6">
-        <v>796.49599999999998</v>
+        <v>3731.4076</v>
       </c>
       <c r="G6">
-        <v>3731.4076</v>
-      </c>
-      <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5275</v>
       </c>
       <c r="B7">
-        <v>19.22133745</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D7">
-        <v>0.35220001000000001</v>
+        <v>1559.28</v>
       </c>
       <c r="E7">
-        <v>1559.28</v>
+        <v>788.52</v>
       </c>
       <c r="F7">
-        <v>788.52</v>
+        <v>3758.4076</v>
       </c>
       <c r="G7">
-        <v>3758.4076</v>
-      </c>
-      <c r="H7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5050</v>
       </c>
       <c r="B8">
-        <v>19.2357209</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D8">
-        <v>0.35220001000000001</v>
+        <v>1561.28</v>
       </c>
       <c r="E8">
-        <v>1561.28</v>
+        <v>780.54399999999998</v>
       </c>
       <c r="F8">
-        <v>780.54399999999998</v>
+        <v>3785.4076</v>
       </c>
       <c r="G8">
-        <v>3785.4076</v>
-      </c>
-      <c r="H8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5017.5</v>
       </c>
       <c r="B9">
-        <v>19.272683099999998</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D9">
-        <v>0.35220001000000001</v>
+        <v>1563.28</v>
       </c>
       <c r="E9">
-        <v>1563.28</v>
+        <v>782.56799999999998</v>
       </c>
       <c r="F9">
-        <v>782.56799999999998</v>
+        <v>3652.4076</v>
       </c>
       <c r="G9">
-        <v>3652.4076</v>
-      </c>
-      <c r="H9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4985</v>
       </c>
       <c r="B10">
-        <v>19.3096453</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D10">
-        <v>0.35220001000000001</v>
+        <v>1523.28</v>
       </c>
       <c r="E10">
-        <v>1523.28</v>
+        <v>774.59199999999998</v>
       </c>
       <c r="F10">
-        <v>774.59199999999998</v>
+        <v>3599.4076</v>
       </c>
       <c r="G10">
-        <v>3599.4076</v>
-      </c>
-      <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4957.5</v>
       </c>
       <c r="B11">
-        <v>19.5021497</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D11">
-        <v>0.35220001000000001</v>
+        <v>1497.28</v>
       </c>
       <c r="E11">
-        <v>1497.28</v>
+        <v>766.61599999999999</v>
       </c>
       <c r="F11">
-        <v>766.61599999999999</v>
+        <v>3566.4076</v>
       </c>
       <c r="G11">
-        <v>3566.4076</v>
-      </c>
-      <c r="H11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4930</v>
       </c>
       <c r="B12">
-        <v>19.694654100000001</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D12">
-        <v>0.35220001000000001</v>
+        <v>1496.28</v>
       </c>
       <c r="E12">
-        <v>1496.28</v>
+        <v>778.64</v>
       </c>
       <c r="F12">
-        <v>778.64</v>
+        <v>3493.4076</v>
       </c>
       <c r="G12">
-        <v>3493.4076</v>
-      </c>
-      <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5140</v>
       </c>
       <c r="B13">
-        <v>19.638625449999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D13">
-        <v>0.35220001000000001</v>
+        <v>1495.28</v>
       </c>
       <c r="E13">
-        <v>1495.28</v>
+        <v>760.66399999999999</v>
       </c>
       <c r="F13">
-        <v>760.66399999999999</v>
+        <v>3420.4076</v>
       </c>
       <c r="G13">
-        <v>3420.4076</v>
-      </c>
-      <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5550</v>
       </c>
       <c r="B14">
-        <v>19.582596800000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D14">
-        <v>0.35220001000000001</v>
+        <v>1494.28</v>
       </c>
       <c r="E14">
-        <v>1494.28</v>
+        <v>752.68799999999999</v>
       </c>
       <c r="F14">
-        <v>752.68799999999999</v>
+        <v>3447.4076</v>
       </c>
       <c r="G14">
-        <v>3447.4076</v>
-      </c>
-      <c r="H14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5105</v>
       </c>
       <c r="B15">
-        <v>19.676423849999999</v>
+        <v>0.122170075</v>
       </c>
       <c r="C15">
-        <v>0.122170075</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D15">
-        <v>0.35220001000000001</v>
+        <v>1493.28</v>
       </c>
       <c r="E15">
-        <v>1493.28</v>
+        <v>736.56200000000001</v>
       </c>
       <c r="F15">
-        <v>736.56200000000001</v>
+        <v>3374.4076</v>
       </c>
       <c r="G15">
-        <v>3374.4076</v>
-      </c>
-      <c r="H15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4860</v>
       </c>
       <c r="B16">
-        <v>19.770250900000001</v>
+        <v>0.24434015000000001</v>
       </c>
       <c r="C16">
-        <v>0.24434015000000001</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D16">
-        <v>0.35220001000000001</v>
+        <v>1377.28</v>
       </c>
       <c r="E16">
-        <v>1377.28</v>
+        <v>718.53599999999994</v>
       </c>
       <c r="F16">
-        <v>718.53599999999994</v>
+        <v>3501.4076</v>
       </c>
       <c r="G16">
-        <v>3501.4076</v>
-      </c>
-      <c r="H16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5355</v>
       </c>
       <c r="B17">
-        <v>19.94335435</v>
+        <v>1.5096731000000001</v>
       </c>
       <c r="C17">
-        <v>1.5096731000000001</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D17">
-        <v>0.35220001000000001</v>
+        <v>1379.28</v>
       </c>
       <c r="E17">
-        <v>1379.28</v>
+        <v>700.51</v>
       </c>
       <c r="F17">
-        <v>700.51</v>
+        <v>3528.4076</v>
       </c>
       <c r="G17">
-        <v>3528.4076</v>
-      </c>
-      <c r="H17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5100</v>
       </c>
       <c r="B18">
-        <v>20.116457799999999</v>
+        <v>2.77500605</v>
       </c>
       <c r="C18">
-        <v>2.77500605</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D18">
-        <v>0.35220001000000001</v>
+        <v>1381.28</v>
       </c>
       <c r="E18">
-        <v>1381.28</v>
+        <v>701.48400000000004</v>
       </c>
       <c r="F18">
-        <v>701.48400000000004</v>
+        <v>3555.4076</v>
       </c>
       <c r="G18">
-        <v>3555.4076</v>
-      </c>
-      <c r="H18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5112.5</v>
       </c>
       <c r="B19">
-        <v>20.393423250000001</v>
+        <v>5.9601544999999998</v>
       </c>
       <c r="C19">
-        <v>5.9601544999999998</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D19">
-        <v>0.35220001000000001</v>
+        <v>1383.28</v>
       </c>
       <c r="E19">
-        <v>1383.28</v>
+        <v>698.45799999999997</v>
       </c>
       <c r="F19">
-        <v>698.45799999999997</v>
+        <v>3582.4076</v>
       </c>
       <c r="G19">
-        <v>3582.4076</v>
-      </c>
-      <c r="H19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4475</v>
       </c>
       <c r="B20">
-        <v>20.6703887</v>
+        <v>9.1453029499999996</v>
       </c>
       <c r="C20">
-        <v>9.1453029499999996</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D20">
-        <v>0.35220001000000001</v>
+        <v>1285.28</v>
       </c>
       <c r="E20">
-        <v>1285.28</v>
+        <v>688.43200000000002</v>
       </c>
       <c r="F20">
-        <v>688.43200000000002</v>
+        <v>3589.4076</v>
       </c>
       <c r="G20">
-        <v>3589.4076</v>
-      </c>
-      <c r="H20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4435</v>
       </c>
       <c r="B21">
-        <v>20.448782900000001</v>
+        <v>13.94484173</v>
       </c>
       <c r="C21">
-        <v>13.94484173</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D21">
-        <v>0.35220001000000001</v>
+        <v>1287.28</v>
       </c>
       <c r="E21">
-        <v>1287.28</v>
+        <v>672.40599999999995</v>
       </c>
       <c r="F21">
-        <v>672.40599999999995</v>
+        <v>3536.4076</v>
       </c>
       <c r="G21">
-        <v>3536.4076</v>
-      </c>
-      <c r="H21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4395</v>
       </c>
       <c r="B22">
-        <v>20.227177099999999</v>
+        <v>18.744380499999998</v>
       </c>
       <c r="C22">
-        <v>18.744380499999998</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D22">
-        <v>0.35220001000000001</v>
+        <v>1289.28</v>
       </c>
       <c r="E22">
-        <v>1289.28</v>
+        <v>656.38</v>
       </c>
       <c r="F22">
-        <v>656.38</v>
+        <v>3563.4076</v>
       </c>
       <c r="G22">
-        <v>3563.4076</v>
-      </c>
-      <c r="H22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4150</v>
       </c>
       <c r="B23">
-        <v>20.76220885</v>
+        <v>26.916686049999999</v>
       </c>
       <c r="C23">
-        <v>26.916686049999999</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D23">
-        <v>0.35220001000000001</v>
+        <v>1291.28</v>
       </c>
       <c r="E23">
-        <v>1291.28</v>
+        <v>643.35400000000004</v>
       </c>
       <c r="F23">
-        <v>643.35400000000004</v>
+        <v>3490.4076</v>
       </c>
       <c r="G23">
-        <v>3490.4076</v>
-      </c>
-      <c r="H23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3905</v>
       </c>
       <c r="B24">
-        <v>21.297240599999999</v>
+        <v>35.0889916</v>
       </c>
       <c r="C24">
-        <v>35.0889916</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D24">
-        <v>0.35220001000000001</v>
+        <v>1293.28</v>
       </c>
       <c r="E24">
-        <v>1293.28</v>
+        <v>634.32799999999997</v>
       </c>
       <c r="F24">
-        <v>634.32799999999997</v>
+        <v>3517.4076</v>
       </c>
       <c r="G24">
-        <v>3517.4076</v>
-      </c>
-      <c r="H24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4057.5</v>
       </c>
       <c r="B25">
-        <v>28.6920182</v>
+        <v>47.995387649999998</v>
       </c>
       <c r="C25">
-        <v>47.995387649999998</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D25">
-        <v>0.35220001000000001</v>
+        <v>1295.28</v>
       </c>
       <c r="E25">
-        <v>1295.28</v>
+        <v>636.30200000000002</v>
       </c>
       <c r="F25">
-        <v>636.30200000000002</v>
+        <v>3444.4076</v>
       </c>
       <c r="G25">
-        <v>3444.4076</v>
-      </c>
-      <c r="H25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4210</v>
       </c>
       <c r="B26">
-        <v>36.086795799999997</v>
+        <v>60.901783700000003</v>
       </c>
       <c r="C26">
-        <v>60.901783700000003</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D26">
-        <v>0.35220001000000001</v>
+        <v>1297.28</v>
       </c>
       <c r="E26">
-        <v>1297.28</v>
+        <v>638.27599999999995</v>
       </c>
       <c r="F26">
-        <v>638.27599999999995</v>
+        <v>3471.4076</v>
       </c>
       <c r="G26">
-        <v>3471.4076</v>
-      </c>
-      <c r="H26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4112.5</v>
       </c>
       <c r="B27">
-        <v>38.290812150000001</v>
+        <v>74.397214079999998</v>
       </c>
       <c r="C27">
-        <v>74.397214079999998</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D27">
-        <v>0.35220001000000001</v>
+        <v>1299.28</v>
       </c>
       <c r="E27">
-        <v>1299.28</v>
+        <v>625.98</v>
       </c>
       <c r="F27">
-        <v>625.98</v>
+        <v>3398.4076</v>
       </c>
       <c r="G27">
-        <v>3398.4076</v>
-      </c>
-      <c r="H27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4015</v>
       </c>
       <c r="B28">
-        <v>40.494828499999997</v>
+        <v>87.892644450000006</v>
       </c>
       <c r="C28">
-        <v>87.892644450000006</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D28">
-        <v>0.35220001000000001</v>
+        <v>1301.28</v>
       </c>
       <c r="E28">
-        <v>1301.28</v>
+        <v>607.83000000000004</v>
       </c>
       <c r="F28">
-        <v>607.83000000000004</v>
+        <v>3325.4076</v>
       </c>
       <c r="G28">
-        <v>3325.4076</v>
-      </c>
-      <c r="H28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007.5</v>
       </c>
       <c r="B29">
-        <v>42.812574699999999</v>
+        <v>110.5464674</v>
       </c>
       <c r="C29">
-        <v>110.5464674</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D29">
-        <v>0.35220001000000001</v>
+        <v>1303.28</v>
       </c>
       <c r="E29">
-        <v>1303.28</v>
+        <v>609.67999999999995</v>
       </c>
       <c r="F29">
-        <v>609.67999999999995</v>
+        <v>3352.4076</v>
       </c>
       <c r="G29">
-        <v>3352.4076</v>
-      </c>
-      <c r="H29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
       <c r="B30">
-        <v>45.130320900000001</v>
+        <v>133.2002904</v>
       </c>
       <c r="C30">
-        <v>133.2002904</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D30">
-        <v>0.35220001000000001</v>
+        <v>1305.28</v>
       </c>
       <c r="E30">
-        <v>1305.28</v>
+        <v>611.53</v>
       </c>
       <c r="F30">
-        <v>611.53</v>
+        <v>3379.4076</v>
       </c>
       <c r="G30">
-        <v>3379.4076</v>
-      </c>
-      <c r="H30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4310</v>
       </c>
       <c r="B31">
-        <v>43.723751</v>
+        <v>160.94598769999999</v>
       </c>
       <c r="C31">
-        <v>160.94598769999999</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D31">
-        <v>0.35220001000000001</v>
+        <v>1207.28</v>
       </c>
       <c r="E31">
-        <v>1207.28</v>
+        <v>613.38</v>
       </c>
       <c r="F31">
-        <v>613.38</v>
+        <v>3306.4076</v>
       </c>
       <c r="G31">
-        <v>3306.4076</v>
-      </c>
-      <c r="H31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4620</v>
       </c>
       <c r="B32">
-        <v>42.317181099999999</v>
+        <v>188.69168500000001</v>
       </c>
       <c r="C32">
-        <v>188.69168500000001</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D32">
-        <v>0.35220001000000001</v>
+        <v>1209.28</v>
       </c>
       <c r="E32">
-        <v>1209.28</v>
+        <v>615.23</v>
       </c>
       <c r="F32">
-        <v>615.23</v>
+        <v>3333.4076</v>
       </c>
       <c r="G32">
-        <v>3333.4076</v>
-      </c>
-      <c r="H32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4720</v>
       </c>
       <c r="B33">
-        <v>40.780658250000002</v>
+        <v>203.31718860000001</v>
       </c>
       <c r="C33">
-        <v>203.31718860000001</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="D33">
-        <v>0.35220001000000001</v>
+        <v>1211.28</v>
       </c>
       <c r="E33">
-        <v>1211.28</v>
+        <v>617.08000000000004</v>
       </c>
       <c r="F33">
-        <v>617.08000000000004</v>
+        <v>3360.4076</v>
       </c>
       <c r="G33">
-        <v>3360.4076</v>
-      </c>
-      <c r="H33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4820</v>
       </c>
       <c r="B34">
-        <v>39.244135399999998</v>
+        <v>217.94269209999999</v>
       </c>
       <c r="C34">
-        <v>217.94269209999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D34">
-        <v>0.65550003000000001</v>
+        <v>1213.28</v>
       </c>
       <c r="E34">
-        <v>1213.28</v>
+        <v>618.92999999999995</v>
       </c>
       <c r="F34">
-        <v>618.92999999999995</v>
+        <v>3287.4076</v>
       </c>
       <c r="G34">
-        <v>3287.4076</v>
-      </c>
-      <c r="H34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4825</v>
       </c>
       <c r="B35">
-        <v>42.533602250000001</v>
+        <v>238.2141986</v>
       </c>
       <c r="C35">
-        <v>238.2141986</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D35">
-        <v>0.65550003000000001</v>
+        <v>1215.28</v>
       </c>
       <c r="E35">
-        <v>1215.28</v>
+        <v>620.78</v>
       </c>
       <c r="F35">
-        <v>620.78</v>
+        <v>3214.4076</v>
       </c>
       <c r="G35">
-        <v>3214.4076</v>
-      </c>
-      <c r="H35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4830</v>
       </c>
       <c r="B36">
-        <v>45.823069099999998</v>
+        <v>258.485705</v>
       </c>
       <c r="C36">
-        <v>258.485705</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D36">
-        <v>0.65550003000000001</v>
+        <v>1319.0320000000002</v>
       </c>
       <c r="E36">
-        <v>1319.0320000000002</v>
+        <v>622.63</v>
       </c>
       <c r="F36">
-        <v>622.63</v>
+        <v>3141.4076</v>
       </c>
       <c r="G36">
-        <v>3141.4076</v>
-      </c>
-      <c r="H36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5100</v>
       </c>
       <c r="B37">
-        <v>44.878944599999997</v>
+        <v>265.54975350000001</v>
       </c>
       <c r="C37">
-        <v>265.54975350000001</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D37">
-        <v>0.65550003000000001</v>
+        <v>1380.9760000000001</v>
       </c>
       <c r="E37">
-        <v>1380.9760000000001</v>
+        <v>624.48</v>
       </c>
       <c r="F37">
-        <v>624.48</v>
+        <v>3068.4076</v>
       </c>
       <c r="G37">
-        <v>3068.4076</v>
-      </c>
-      <c r="H37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5150</v>
       </c>
       <c r="B38">
-        <v>43.934820100000003</v>
+        <v>272.6138019</v>
       </c>
       <c r="C38">
-        <v>272.6138019</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D38">
-        <v>0.65550003000000001</v>
+        <v>1442.92</v>
       </c>
       <c r="E38">
-        <v>1442.92</v>
+        <v>626.33000000000004</v>
       </c>
       <c r="F38">
-        <v>626.33000000000004</v>
+        <v>3195.4076</v>
       </c>
       <c r="G38">
-        <v>3195.4076</v>
-      </c>
-      <c r="H38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5150</v>
       </c>
       <c r="B39">
-        <v>43.0984044</v>
+        <v>286.39720449999999</v>
       </c>
       <c r="C39">
-        <v>286.39720449999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D39">
-        <v>0.65550003000000001</v>
+        <v>1408.04</v>
       </c>
       <c r="E39">
-        <v>1408.04</v>
+        <v>628.17999999999995</v>
       </c>
       <c r="F39">
-        <v>628.17999999999995</v>
+        <v>3280.502</v>
       </c>
       <c r="G39">
-        <v>3280.502</v>
-      </c>
-      <c r="H39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5250</v>
       </c>
       <c r="B40">
-        <v>42.261988700000003</v>
+        <v>300.1806072</v>
       </c>
       <c r="C40">
-        <v>300.1806072</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D40">
-        <v>0.65550003000000001</v>
+        <v>1473.44</v>
       </c>
       <c r="E40">
-        <v>1473.44</v>
+        <v>634.03</v>
       </c>
       <c r="F40">
-        <v>634.03</v>
+        <v>3247.2719999999999</v>
       </c>
       <c r="G40">
-        <v>3247.2719999999999</v>
-      </c>
-      <c r="H40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5100</v>
       </c>
       <c r="B41">
-        <v>41.597171199999998</v>
+        <v>310.25963860000002</v>
       </c>
       <c r="C41">
-        <v>310.25963860000002</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D41">
-        <v>0.65550003000000001</v>
+        <v>1438.944</v>
       </c>
       <c r="E41">
-        <v>1438.944</v>
+        <v>638.88</v>
       </c>
       <c r="F41">
-        <v>638.88</v>
+        <v>3414.0419999999995</v>
       </c>
       <c r="G41">
-        <v>3414.0419999999995</v>
-      </c>
-      <c r="H41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5150</v>
       </c>
       <c r="B42">
-        <v>40.9323537</v>
+        <v>320.33866999999998</v>
       </c>
       <c r="C42">
-        <v>320.33866999999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D42">
-        <v>0.65550003000000001</v>
+        <v>1604.4480000000001</v>
       </c>
       <c r="E42">
-        <v>1604.4480000000001</v>
+        <v>655.73</v>
       </c>
       <c r="F42">
-        <v>655.73</v>
+        <v>3580.8119999999999</v>
       </c>
       <c r="G42">
-        <v>3580.8119999999999</v>
-      </c>
-      <c r="H42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5300</v>
       </c>
       <c r="B43">
-        <v>40.616084549999997</v>
+        <v>327.3678127</v>
       </c>
       <c r="C43">
-        <v>327.3678127</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D43">
-        <v>0.65550003000000001</v>
+        <v>1770.048</v>
       </c>
       <c r="E43">
-        <v>1770.048</v>
+        <v>666.58</v>
       </c>
       <c r="F43">
-        <v>666.58</v>
+        <v>3747.5819999999999</v>
       </c>
       <c r="G43">
-        <v>3747.5819999999999</v>
-      </c>
-      <c r="H43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5650</v>
       </c>
       <c r="B44">
-        <v>40.2998154</v>
+        <v>334.39695540000002</v>
       </c>
       <c r="C44">
-        <v>334.39695540000002</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D44">
-        <v>0.65550003000000001</v>
+        <v>1935.6480000000001</v>
       </c>
       <c r="E44">
-        <v>1935.6480000000001</v>
+        <v>687.43</v>
       </c>
       <c r="F44">
-        <v>687.43</v>
+        <v>3718.6343999999999</v>
       </c>
       <c r="G44">
-        <v>3718.6343999999999</v>
-      </c>
-      <c r="H44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5375</v>
       </c>
       <c r="B45">
-        <v>39.998431449999998</v>
+        <v>336.11169969999997</v>
       </c>
       <c r="C45">
-        <v>336.11169969999997</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D45">
-        <v>0.65550003000000001</v>
+        <v>1958.712</v>
       </c>
       <c r="E45">
-        <v>1958.712</v>
+        <v>787.61360000000002</v>
       </c>
       <c r="F45">
-        <v>787.61360000000002</v>
+        <v>3877.0659000000001</v>
       </c>
       <c r="G45">
-        <v>3877.0659000000001</v>
-      </c>
-      <c r="H45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5300</v>
       </c>
       <c r="B46">
-        <v>39.697047499999996</v>
+        <v>337.82644399999998</v>
       </c>
       <c r="C46">
-        <v>337.82644399999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D46">
-        <v>0.65550003000000001</v>
+        <v>1981.7760000000003</v>
       </c>
       <c r="E46">
-        <v>1981.7760000000003</v>
+        <v>794.53279999999995</v>
       </c>
       <c r="F46">
-        <v>794.53279999999995</v>
+        <v>4035.4973999999997</v>
       </c>
       <c r="G46">
-        <v>4035.4973999999997</v>
-      </c>
-      <c r="H46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5625</v>
       </c>
       <c r="B47">
-        <v>39.079227199999998</v>
+        <v>343.89131570000001</v>
       </c>
       <c r="C47">
-        <v>343.89131570000001</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D47">
-        <v>0.65550003000000001</v>
+        <v>2009.6400000000003</v>
       </c>
       <c r="E47">
-        <v>2009.6400000000003</v>
+        <v>802.89200000000005</v>
       </c>
       <c r="F47">
-        <v>802.89200000000005</v>
+        <v>4193.928899999999</v>
       </c>
       <c r="G47">
-        <v>4193.928899999999</v>
-      </c>
-      <c r="H47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5550</v>
       </c>
       <c r="B48">
-        <v>38.4614069</v>
+        <v>349.95618739999998</v>
       </c>
       <c r="C48">
-        <v>349.95618739999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D48">
-        <v>0.65550003000000001</v>
+        <v>2037.5040000000001</v>
       </c>
       <c r="E48">
-        <v>2037.5040000000001</v>
+        <v>811.25119999999993</v>
       </c>
       <c r="F48">
-        <v>811.25119999999993</v>
+        <v>4352.3603999999996</v>
       </c>
       <c r="G48">
-        <v>4352.3603999999996</v>
-      </c>
-      <c r="H48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5425</v>
       </c>
       <c r="B49">
-        <v>35.265599899999998</v>
+        <v>354.17978160000001</v>
       </c>
       <c r="C49">
-        <v>354.17978160000001</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D49">
-        <v>0.65550003000000001</v>
+        <v>2091.288</v>
       </c>
       <c r="E49">
-        <v>2091.288</v>
+        <v>827.38639999999998</v>
       </c>
       <c r="F49">
-        <v>827.38639999999998</v>
+        <v>4510.7918999999993</v>
       </c>
       <c r="G49">
-        <v>4510.7918999999993</v>
-      </c>
-      <c r="H49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5300</v>
       </c>
       <c r="B50">
-        <v>32.069792900000003</v>
+        <v>358.40337570000003</v>
       </c>
       <c r="C50">
-        <v>358.40337570000003</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D50">
-        <v>0.65550003000000001</v>
+        <v>2145.0720000000001</v>
       </c>
       <c r="E50">
-        <v>2145.0720000000001</v>
+        <v>843.52159999999992</v>
       </c>
       <c r="F50">
-        <v>843.52159999999992</v>
+        <v>5196.4369199999983</v>
       </c>
       <c r="G50">
-        <v>5196.4369199999983</v>
-      </c>
-      <c r="H50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5150</v>
       </c>
       <c r="B51">
-        <v>28.124874500000001</v>
+        <v>355.48874669999998</v>
       </c>
       <c r="C51">
-        <v>355.48874669999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D51">
-        <v>0.65550003000000001</v>
+        <v>2193.1680000000001</v>
       </c>
       <c r="E51">
-        <v>2193.1680000000001</v>
+        <v>857.95040000000006</v>
       </c>
       <c r="F51">
-        <v>857.95040000000006</v>
+        <v>5312.9494800000002</v>
       </c>
       <c r="G51">
-        <v>5312.9494800000002</v>
-      </c>
-      <c r="H51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>24.179956099999998</v>
+        <v>352.57411769999999</v>
       </c>
       <c r="C52">
-        <v>352.57411769999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D52">
-        <v>0.65550003000000001</v>
+        <v>2241.2640000000001</v>
       </c>
       <c r="E52">
-        <v>2241.2640000000001</v>
+        <v>832.37919999999997</v>
       </c>
       <c r="F52">
-        <v>832.37919999999997</v>
+        <v>5429.4620400000003</v>
       </c>
       <c r="G52">
-        <v>5429.4620400000003</v>
-      </c>
-      <c r="H52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
       <c r="B53">
-        <v>19.223344399999998</v>
+        <v>347.5825974</v>
       </c>
       <c r="C53">
-        <v>347.5825974</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D53">
-        <v>0.65550003000000001</v>
+        <v>2279.4720000000002</v>
       </c>
       <c r="E53">
-        <v>2279.4720000000002</v>
+        <v>843.84159999999997</v>
       </c>
       <c r="F53">
-        <v>843.84159999999997</v>
+        <v>5545.9746000000005</v>
       </c>
       <c r="G53">
-        <v>5545.9746000000005</v>
-      </c>
-      <c r="H53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5100</v>
       </c>
       <c r="B54">
-        <v>14.2667327</v>
+        <v>342.59107699999998</v>
       </c>
       <c r="C54">
-        <v>342.59107699999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D54">
-        <v>0.65550003000000001</v>
+        <v>2317.6800000000003</v>
       </c>
       <c r="E54">
-        <v>2317.6800000000003</v>
+        <v>848.10400000000004</v>
       </c>
       <c r="F54">
-        <v>848.10400000000004</v>
+        <v>5662.4871600000006</v>
       </c>
       <c r="G54">
-        <v>5662.4871600000006</v>
-      </c>
-      <c r="H54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5150</v>
       </c>
       <c r="B55">
-        <v>10.552451700000001</v>
+        <v>335.38740569999999</v>
       </c>
       <c r="C55">
-        <v>335.38740569999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D55">
-        <v>0.65550003000000001</v>
+        <v>2355.864</v>
       </c>
       <c r="E55">
-        <v>2355.864</v>
+        <v>852.3664</v>
       </c>
       <c r="F55">
-        <v>852.3664</v>
+        <v>5778.9997199999998</v>
       </c>
       <c r="G55">
-        <v>5778.9997199999998</v>
-      </c>
-      <c r="H55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5200</v>
       </c>
       <c r="B56">
-        <v>6.8381707</v>
+        <v>328.18373430000003</v>
       </c>
       <c r="C56">
-        <v>328.18373430000003</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D56">
-        <v>0.65550003000000001</v>
+        <v>2394.0480000000002</v>
       </c>
       <c r="E56">
-        <v>2394.0480000000002</v>
+        <v>856.62879999999996</v>
       </c>
       <c r="F56">
-        <v>856.62879999999996</v>
+        <v>5895.5122799999999</v>
       </c>
       <c r="G56">
-        <v>5895.5122799999999</v>
-      </c>
-      <c r="H56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5200</v>
       </c>
       <c r="B57">
-        <v>8.2487545499999992</v>
+        <v>317.71637659999999</v>
       </c>
       <c r="C57">
-        <v>317.71637659999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D57">
-        <v>0.65550003000000001</v>
+        <v>2404.4160000000002</v>
       </c>
       <c r="E57">
-        <v>2404.4160000000002</v>
+        <v>860.89120000000003</v>
       </c>
       <c r="F57">
-        <v>860.89120000000003</v>
+        <v>6012.0248399999991</v>
       </c>
       <c r="G57">
-        <v>6012.0248399999991</v>
-      </c>
-      <c r="H57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5800</v>
       </c>
       <c r="B58">
-        <v>9.6593383999999993</v>
+        <v>307.24901890000001</v>
       </c>
       <c r="C58">
-        <v>307.24901890000001</v>
+        <v>1.04989998</v>
       </c>
       <c r="D58">
-        <v>1.04989998</v>
+        <v>2414.7840000000001</v>
       </c>
       <c r="E58">
-        <v>2414.7840000000001</v>
+        <v>864.03520000000003</v>
       </c>
       <c r="F58">
-        <v>864.03520000000003</v>
+        <v>6128.5374000000002</v>
       </c>
       <c r="G58">
-        <v>6128.5374000000002</v>
-      </c>
-      <c r="H58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5850</v>
       </c>
       <c r="B59">
-        <v>10.15272495</v>
+        <v>302.94688689999998</v>
       </c>
       <c r="C59">
-        <v>302.94688689999998</v>
+        <v>1.04989998</v>
       </c>
       <c r="D59">
-        <v>1.04989998</v>
+        <v>2429.904</v>
       </c>
       <c r="E59">
-        <v>2429.904</v>
+        <v>888.97119999999995</v>
       </c>
       <c r="F59">
-        <v>888.97119999999995</v>
+        <v>6245.0499600000003</v>
       </c>
       <c r="G59">
-        <v>6245.0499600000003</v>
-      </c>
-      <c r="H59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5900</v>
       </c>
       <c r="B60">
-        <v>10.6461115</v>
+        <v>298.64475479999999</v>
       </c>
       <c r="C60">
-        <v>298.64475479999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="D60">
-        <v>1.04989998</v>
+        <v>2445.0239999999999</v>
       </c>
       <c r="E60">
-        <v>2445.0239999999999</v>
+        <v>881.50720000000001</v>
       </c>
       <c r="F60">
-        <v>881.50720000000001</v>
+        <v>6238.4219999999978</v>
       </c>
       <c r="G60">
-        <v>6238.4219999999978</v>
-      </c>
-      <c r="H60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6050</v>
       </c>
       <c r="B61">
-        <v>9.0965431500000005</v>
+        <v>275.68114350000002</v>
       </c>
       <c r="C61">
-        <v>275.68114350000002</v>
+        <v>1.04989998</v>
       </c>
       <c r="D61">
-        <v>1.04989998</v>
+        <v>2470.6560000000004</v>
       </c>
       <c r="E61">
-        <v>2470.6560000000004</v>
+        <v>885.19679999999994</v>
       </c>
       <c r="F61">
-        <v>885.19679999999994</v>
+        <v>6231.7940399999998</v>
       </c>
       <c r="G61">
-        <v>6231.7940399999998</v>
-      </c>
-      <c r="H61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6100</v>
       </c>
       <c r="B62">
-        <v>7.5469748000000001</v>
+        <v>252.7175321</v>
       </c>
       <c r="C62">
-        <v>252.7175321</v>
+        <v>1.04989998</v>
       </c>
       <c r="D62">
-        <v>1.04989998</v>
+        <v>2496.288</v>
       </c>
       <c r="E62">
-        <v>2496.288</v>
+        <v>928.88639999999998</v>
       </c>
       <c r="F62">
-        <v>928.88639999999998</v>
+        <v>6225.1660799999991</v>
       </c>
       <c r="G62">
-        <v>6225.1660799999991</v>
-      </c>
-      <c r="H62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6150</v>
       </c>
       <c r="B63">
-        <v>6.8644288500000004</v>
+        <v>236.1373073</v>
       </c>
       <c r="C63">
-        <v>236.1373073</v>
+        <v>1.04989998</v>
       </c>
       <c r="D63">
-        <v>1.04989998</v>
+        <v>2521.5840000000007</v>
       </c>
       <c r="E63">
-        <v>2521.5840000000007</v>
+        <v>996.47519999999986</v>
       </c>
       <c r="F63">
-        <v>996.47519999999986</v>
+        <v>6218.5381200000002</v>
       </c>
       <c r="G63">
-        <v>6218.5381200000002</v>
-      </c>
-      <c r="H63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
       <c r="B64">
-        <v>6.1818828999999997</v>
+        <v>219.55708240000001</v>
       </c>
       <c r="C64">
-        <v>219.55708240000001</v>
+        <v>1.04989998</v>
       </c>
       <c r="D64">
-        <v>1.04989998</v>
+        <v>2546.8800000000006</v>
       </c>
       <c r="E64">
-        <v>2546.8800000000006</v>
+        <v>1004.0639999999999</v>
       </c>
       <c r="F64">
-        <v>1004.0639999999999</v>
+        <v>6211.9101600000004</v>
       </c>
       <c r="G64">
-        <v>6211.9101600000004</v>
-      </c>
-      <c r="H64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6150</v>
       </c>
       <c r="B65">
-        <v>5.2842538499999998</v>
+        <v>205.67332579999999</v>
       </c>
       <c r="C65">
-        <v>205.67332579999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="D65">
-        <v>1.04989998</v>
+        <v>2521.6320000000001</v>
       </c>
       <c r="E65">
-        <v>2521.6320000000001</v>
+        <v>996.4896</v>
       </c>
       <c r="F65">
-        <v>996.4896</v>
+        <v>6205.2821999999996</v>
       </c>
       <c r="G65">
-        <v>6205.2821999999996</v>
-      </c>
-      <c r="H65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6100</v>
       </c>
       <c r="B66">
-        <v>4.3866247999999999</v>
+        <v>191.78956909999999</v>
       </c>
       <c r="C66">
-        <v>191.78956909999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="D66">
-        <v>1.04989998</v>
+        <v>2496.3840000000005</v>
       </c>
       <c r="E66">
-        <v>2496.3840000000005</v>
+        <v>988.91519999999991</v>
       </c>
       <c r="F66">
-        <v>988.91519999999991</v>
+        <v>6198.6542400000008</v>
       </c>
       <c r="G66">
-        <v>6198.6542400000008</v>
-      </c>
-      <c r="H66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6050</v>
       </c>
       <c r="B67">
-        <v>3.8897259499999999</v>
+        <v>174.74248</v>
       </c>
       <c r="C67">
-        <v>174.74248</v>
+        <v>1.04989998</v>
       </c>
       <c r="D67">
-        <v>1.04989998</v>
+        <v>2470.7040000000002</v>
       </c>
       <c r="E67">
-        <v>2470.7040000000002</v>
+        <v>921.21119999999996</v>
       </c>
       <c r="F67">
-        <v>921.21119999999996</v>
+        <v>6192.0262799999991</v>
       </c>
       <c r="G67">
-        <v>6192.0262799999991</v>
-      </c>
-      <c r="H67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6000</v>
       </c>
       <c r="B68">
-        <v>3.3928270999999999</v>
+        <v>157.695391</v>
       </c>
       <c r="C68">
-        <v>157.695391</v>
+        <v>1.04989998</v>
       </c>
       <c r="D68">
-        <v>1.04989998</v>
+        <v>2445.0239999999999</v>
       </c>
       <c r="E68">
-        <v>2445.0239999999999</v>
+        <v>913.5071999999999</v>
       </c>
       <c r="F68">
-        <v>913.5071999999999</v>
+        <v>6185.3983199999993</v>
       </c>
       <c r="G68">
-        <v>6185.3983199999993</v>
-      </c>
-      <c r="H68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4945</v>
       </c>
       <c r="B69">
-        <v>3.7841914000000001</v>
+        <v>133.71078679999999</v>
       </c>
       <c r="C69">
-        <v>133.71078679999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="D69">
-        <v>1.04989998</v>
+        <v>2374.9680000000003</v>
       </c>
       <c r="E69">
-        <v>2374.9680000000003</v>
+        <v>910.49039999999991</v>
       </c>
       <c r="F69">
-        <v>910.49039999999991</v>
+        <v>6178.7703599999995</v>
       </c>
       <c r="G69">
-        <v>6178.7703599999995</v>
-      </c>
-      <c r="H69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4590</v>
       </c>
       <c r="B70">
-        <v>4.1755557000000003</v>
+        <v>109.7261826</v>
       </c>
       <c r="C70">
-        <v>109.7261826</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D70">
-        <v>0.65550003000000001</v>
+        <v>2304.9119999999998</v>
       </c>
       <c r="E70">
-        <v>2304.9119999999998</v>
+        <v>871.47359999999992</v>
       </c>
       <c r="F70">
-        <v>871.47359999999992</v>
+        <v>6172.1423999999997</v>
       </c>
       <c r="G70">
-        <v>6172.1423999999997</v>
-      </c>
-      <c r="H70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4820</v>
       </c>
       <c r="B71">
-        <v>4.1909426500000002</v>
+        <v>84.681316679999995</v>
       </c>
       <c r="C71">
-        <v>84.681316679999995</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D71">
-        <v>0.65550003000000001</v>
+        <v>2234.8800000000006</v>
       </c>
       <c r="E71">
-        <v>2234.8800000000006</v>
+        <v>790.46400000000006</v>
       </c>
       <c r="F71">
-        <v>790.46400000000006</v>
+        <v>5898.4967999999999</v>
       </c>
       <c r="G71">
-        <v>5898.4967999999999</v>
-      </c>
-      <c r="H71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5050</v>
       </c>
       <c r="B72">
-        <v>4.2063296000000001</v>
+        <v>59.636450750000002</v>
       </c>
       <c r="C72">
-        <v>59.636450750000002</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D72">
-        <v>0.65550003000000001</v>
+        <v>2164.848</v>
       </c>
       <c r="E72">
-        <v>2164.848</v>
+        <v>769.45439999999996</v>
       </c>
       <c r="F72">
-        <v>769.45439999999996</v>
+        <v>5624.8512000000001</v>
       </c>
       <c r="G72">
-        <v>5624.8512000000001</v>
-      </c>
-      <c r="H72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5150</v>
       </c>
       <c r="B73">
-        <v>4.9969188500000001</v>
+        <v>48.619327679999998</v>
       </c>
       <c r="C73">
-        <v>48.619327679999998</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D73">
-        <v>0.65550003000000001</v>
+        <v>2128.944</v>
       </c>
       <c r="E73">
-        <v>2128.944</v>
+        <v>738.25439999999992</v>
       </c>
       <c r="F73">
-        <v>738.25439999999992</v>
+        <v>5351.2055999999993</v>
       </c>
       <c r="G73">
-        <v>5351.2055999999993</v>
-      </c>
-      <c r="H73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5250</v>
       </c>
       <c r="B74">
-        <v>5.7875081000000002</v>
+        <v>37.6022046</v>
       </c>
       <c r="C74">
-        <v>37.6022046</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D74">
-        <v>0.65550003000000001</v>
+        <v>2093.0400000000004</v>
       </c>
       <c r="E74">
-        <v>2093.0400000000004</v>
+        <v>707.05439999999999</v>
       </c>
       <c r="F74">
-        <v>707.05439999999999</v>
+        <v>4585.8893999999991</v>
       </c>
       <c r="G74">
-        <v>4585.8893999999991</v>
-      </c>
-      <c r="H74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5250</v>
       </c>
       <c r="B75">
-        <v>6.7020293999999998</v>
+        <v>27.741334049999999</v>
       </c>
       <c r="C75">
-        <v>27.741334049999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D75">
-        <v>0.65550003000000001</v>
+        <v>2065.2720000000004</v>
       </c>
       <c r="E75">
-        <v>2065.2720000000004</v>
+        <v>705.85439999999994</v>
       </c>
       <c r="F75">
-        <v>705.85439999999994</v>
+        <v>4361.6143500000007</v>
       </c>
       <c r="G75">
-        <v>4361.6143500000007</v>
-      </c>
-      <c r="H75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5250</v>
       </c>
       <c r="B76">
-        <v>7.6165507000000003</v>
+        <v>17.880463500000001</v>
       </c>
       <c r="C76">
-        <v>17.880463500000001</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D76">
-        <v>0.65550003000000001</v>
+        <v>2037.5040000000001</v>
       </c>
       <c r="E76">
-        <v>2037.5040000000001</v>
+        <v>704.65440000000001</v>
       </c>
       <c r="F76">
-        <v>704.65440000000001</v>
+        <v>4137.3392999999996</v>
       </c>
       <c r="G76">
-        <v>4137.3392999999996</v>
-      </c>
-      <c r="H76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5775</v>
       </c>
       <c r="B77">
-        <v>9.2303429500000007</v>
+        <v>12.8889432</v>
       </c>
       <c r="C77">
-        <v>12.8889432</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D77">
-        <v>0.65550003000000001</v>
+        <v>1935.6239999999998</v>
       </c>
       <c r="E77">
-        <v>1935.6239999999998</v>
+        <v>703.45439999999996</v>
       </c>
       <c r="F77">
-        <v>703.45439999999996</v>
+        <v>3913.0642499999994</v>
       </c>
       <c r="G77">
-        <v>3913.0642499999994</v>
-      </c>
-      <c r="H77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5800</v>
       </c>
       <c r="B78">
-        <v>10.8441352</v>
+        <v>7.8974228999999996</v>
       </c>
       <c r="C78">
-        <v>7.8974228999999996</v>
+        <v>1.04989998</v>
       </c>
       <c r="D78">
-        <v>1.04989998</v>
+        <v>1833.7439999999999</v>
       </c>
       <c r="E78">
-        <v>1833.7439999999999</v>
+        <v>702.25439999999992</v>
       </c>
       <c r="F78">
-        <v>702.25439999999992</v>
+        <v>3688.7891999999997</v>
       </c>
       <c r="G78">
-        <v>3688.7891999999997</v>
-      </c>
-      <c r="H78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5997</v>
       </c>
       <c r="B79">
-        <v>12.2970332</v>
+        <v>4.6250100999999999</v>
       </c>
       <c r="C79">
-        <v>4.6250100999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="D79">
-        <v>1.04989998</v>
+        <v>1731.864</v>
       </c>
       <c r="E79">
-        <v>1731.864</v>
+        <v>696.55920000000003</v>
       </c>
       <c r="F79">
-        <v>696.55920000000003</v>
+        <v>3464.5141500000004</v>
       </c>
       <c r="G79">
-        <v>3464.5141500000004</v>
-      </c>
-      <c r="H79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5840</v>
       </c>
       <c r="B80">
-        <v>13.749931200000001</v>
+        <v>1.3525973</v>
       </c>
       <c r="C80">
-        <v>1.3525973</v>
+        <v>1.04989998</v>
       </c>
       <c r="D80">
-        <v>1.04989998</v>
+        <v>1629.9840000000002</v>
       </c>
       <c r="E80">
-        <v>1629.9840000000002</v>
+        <v>710.99519999999995</v>
       </c>
       <c r="F80">
-        <v>710.99519999999995</v>
+        <v>3240.2390999999998</v>
       </c>
       <c r="G80">
-        <v>3240.2390999999998</v>
-      </c>
-      <c r="H80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5920</v>
       </c>
       <c r="B81">
-        <v>14.58450715</v>
+        <v>0.711204375</v>
       </c>
       <c r="C81">
-        <v>0.711204375</v>
+        <v>1.04989998</v>
       </c>
       <c r="D81">
-        <v>1.04989998</v>
+        <v>1540.848</v>
       </c>
       <c r="E81">
-        <v>1540.848</v>
+        <v>684.25439999999992</v>
       </c>
       <c r="F81">
-        <v>684.25439999999992</v>
+        <v>3015.9640499999996</v>
       </c>
       <c r="G81">
-        <v>3015.9640499999996</v>
-      </c>
-      <c r="H81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6000</v>
       </c>
       <c r="B82">
-        <v>15.4190831</v>
+        <v>6.9811449999999997E-2</v>
       </c>
       <c r="C82">
-        <v>6.9811449999999997E-2</v>
+        <v>1.04989998</v>
       </c>
       <c r="D82">
-        <v>1.04989998</v>
+        <v>1551.712</v>
       </c>
       <c r="E82">
-        <v>1551.712</v>
+        <v>675.5136</v>
       </c>
       <c r="F82">
-        <v>675.5136</v>
+        <v>3138.62</v>
       </c>
       <c r="G82">
-        <v>3138.62</v>
-      </c>
-      <c r="H82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6100</v>
       </c>
       <c r="B83">
-        <v>16.5040318</v>
+        <v>3.4905724999999999E-2</v>
       </c>
       <c r="C83">
-        <v>3.4905724999999999E-2</v>
+        <v>1.04989998</v>
       </c>
       <c r="D83">
-        <v>1.04989998</v>
+        <v>1562.576</v>
       </c>
       <c r="E83">
-        <v>1562.576</v>
+        <v>648.77279999999996</v>
       </c>
       <c r="F83">
-        <v>648.77279999999996</v>
+        <v>3243.0491999999995</v>
       </c>
       <c r="G83">
-        <v>3243.0491999999995</v>
-      </c>
-      <c r="H83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6250</v>
       </c>
       <c r="B84">
-        <v>17.588980500000002</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D84">
-        <v>1.04989998</v>
+        <v>1573.4400000000003</v>
       </c>
       <c r="E84">
-        <v>1573.4400000000003</v>
+        <v>722.03200000000004</v>
       </c>
       <c r="F84">
-        <v>722.03200000000004</v>
+        <v>2959.7543999999998</v>
       </c>
       <c r="G84">
-        <v>2959.7543999999998</v>
-      </c>
-      <c r="H84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5850</v>
       </c>
       <c r="B85">
-        <v>18.586290399999999</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D85">
-        <v>1.04989998</v>
+        <v>1585.303999999996</v>
       </c>
       <c r="E85">
-        <v>1585.303999999996</v>
+        <v>717</v>
       </c>
       <c r="F85">
-        <v>717</v>
+        <v>2976.4596000000001</v>
       </c>
       <c r="G85">
-        <v>2976.4596000000001</v>
-      </c>
-      <c r="H85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5950</v>
       </c>
       <c r="B86">
-        <v>19.583600300000001</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D86">
-        <v>1.04989998</v>
+        <v>1580</v>
       </c>
       <c r="E86">
-        <v>1580</v>
+        <v>711.96799999999996</v>
       </c>
       <c r="F86">
-        <v>711.96799999999996</v>
+        <v>3053.1648</v>
       </c>
       <c r="G86">
-        <v>3053.1648</v>
-      </c>
-      <c r="H86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6150</v>
       </c>
       <c r="B87">
-        <v>19.48325045</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D87">
-        <v>1.04989998</v>
+        <v>1574.696000000004</v>
       </c>
       <c r="E87">
-        <v>1574.696000000004</v>
+        <v>706.93600000000004</v>
       </c>
       <c r="F87">
-        <v>706.93600000000004</v>
+        <v>3169.87</v>
       </c>
       <c r="G87">
-        <v>3169.87</v>
-      </c>
-      <c r="H87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5750</v>
       </c>
       <c r="B88">
-        <v>19.382900599999999</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D88">
-        <v>1.04989998</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="E88">
-        <v>1569.392000000008</v>
+        <v>701.904</v>
       </c>
       <c r="F88">
-        <v>701.904</v>
+        <v>3102.5752000000102</v>
       </c>
       <c r="G88">
-        <v>3102.5752000000102</v>
-      </c>
-      <c r="H88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5500</v>
       </c>
       <c r="B89">
-        <v>19.490776650000001</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1.04989998</v>
       </c>
       <c r="D89">
-        <v>1.04989998</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="E89">
-        <v>1564.088000000012</v>
+        <v>696.87200000000007</v>
       </c>
       <c r="F89">
-        <v>696.87200000000007</v>
+        <v>3135.2804000000101</v>
       </c>
       <c r="G89">
-        <v>3135.2804000000101</v>
-      </c>
-      <c r="H89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5750</v>
       </c>
       <c r="B90">
-        <v>19.598652699999999</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D90">
-        <v>0.65550003000000001</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="E90">
-        <v>1558.784000000016</v>
+        <v>691.84</v>
       </c>
       <c r="F90">
-        <v>691.84</v>
+        <v>3167.98560000002</v>
       </c>
       <c r="G90">
-        <v>3167.98560000002</v>
-      </c>
-      <c r="H90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6075</v>
       </c>
       <c r="B91">
-        <v>19.471877450000001</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D91">
-        <v>0.65550003000000001</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="E91">
-        <v>1553.48000000002</v>
+        <v>686.80799999999999</v>
       </c>
       <c r="F91">
-        <v>686.80799999999999</v>
+        <v>3200.6908000000299</v>
       </c>
       <c r="G91">
-        <v>3200.6908000000299</v>
-      </c>
-      <c r="H91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6400</v>
       </c>
       <c r="B92">
-        <v>19.345102199999999</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D92">
-        <v>0.65550003000000001</v>
+        <v>1548.176000000024</v>
       </c>
       <c r="E92">
-        <v>1548.176000000024</v>
+        <v>681.77600000000007</v>
       </c>
       <c r="F92">
-        <v>681.77600000000007</v>
+        <v>3353.3960000000402</v>
       </c>
       <c r="G92">
-        <v>3353.3960000000402</v>
-      </c>
-      <c r="H92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6025</v>
       </c>
       <c r="B93">
-        <v>19.389590649999999</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D93">
-        <v>0.65550003000000001</v>
+        <v>1542.872000000028</v>
       </c>
       <c r="E93">
-        <v>1542.872000000028</v>
+        <v>676.74400000000003</v>
       </c>
       <c r="F93">
-        <v>676.74400000000003</v>
+        <v>3386.1012000000401</v>
       </c>
       <c r="G93">
-        <v>3386.1012000000401</v>
-      </c>
-      <c r="H93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5650</v>
       </c>
       <c r="B94">
-        <v>19.434079100000002</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D94">
-        <v>0.65550003000000001</v>
+        <v>1537.568000000032</v>
       </c>
       <c r="E94">
-        <v>1537.568000000032</v>
+        <v>671.71199999999999</v>
       </c>
       <c r="F94">
-        <v>671.71199999999999</v>
+        <v>3318.80640000005</v>
       </c>
       <c r="G94">
-        <v>3318.80640000005</v>
-      </c>
-      <c r="H94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5750</v>
       </c>
       <c r="B95">
-        <v>19.466358249999999</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D95">
-        <v>0.65550003000000001</v>
+        <v>1532.264000000036</v>
       </c>
       <c r="E95">
-        <v>1532.264000000036</v>
+        <v>666.68000000000006</v>
       </c>
       <c r="F95">
-        <v>666.68000000000006</v>
+        <v>3451.5116000000598</v>
       </c>
       <c r="G95">
-        <v>3451.5116000000598</v>
-      </c>
-      <c r="H95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5800</v>
       </c>
       <c r="B96">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D96">
-        <v>0.65550003000000001</v>
+        <v>1526.9600000000401</v>
       </c>
       <c r="E96">
-        <v>1526.9600000000401</v>
+        <v>661.64800000000002</v>
       </c>
       <c r="F96">
-        <v>661.64800000000002</v>
+        <v>3584.2168000000702</v>
       </c>
       <c r="G96">
-        <v>3584.2168000000702</v>
-      </c>
-      <c r="H96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5850</v>
       </c>
       <c r="B97">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="D97">
-        <v>0.65550003000000001</v>
+        <v>1521.6560000000441</v>
       </c>
       <c r="E97">
-        <v>1521.6560000000441</v>
+        <v>656.61599999999999</v>
       </c>
       <c r="F97">
-        <v>656.61599999999999</v>
+        <v>3616.9220000000801</v>
       </c>
       <c r="G97">
-        <v>3616.9220000000801</v>
-      </c>
-      <c r="H97">
         <v>95</v>
       </c>
     </row>

--- a/input_IES.xlsx
+++ b/input_IES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7471581E-3032-4671-87A1-373570FCB740}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EF14DFDC-760C-41CE-A4B8-D9031AF000D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>光伏出力</t>
   </si>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>电负荷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏区间上界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏区间下界</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +743,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$G$1</c:f>
+              <c:f>input!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -758,7 +766,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$G$2:$G$97</c:f>
+              <c:f>input!$I$2:$I$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1065,7 +1073,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$F$1</c:f>
+              <c:f>input!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,7 +1096,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$F$2:$F$97</c:f>
+              <c:f>input!$H$2:$H$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1395,7 +1403,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$E$1</c:f>
+              <c:f>input!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1418,7 +1426,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$E$2:$E$97</c:f>
+              <c:f>input!$G$2:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1725,7 +1733,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$D$1</c:f>
+              <c:f>input!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1748,7 +1756,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$D$2:$D$97</c:f>
+              <c:f>input!$F$2:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2308,13 +2316,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2642,21 +2650,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="4" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2664,22 +2675,28 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -2687,22 +2704,30 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <f>0.9*B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1549.28</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>808.4</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>3623.4076</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4525</v>
       </c>
@@ -2710,22 +2735,30 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">0.9*B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">B3*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1551.28</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>810.42399999999998</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>3650.4076</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4050</v>
       </c>
@@ -2733,22 +2766,30 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1553.28</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>812.44799999999998</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3677.4076</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4775</v>
       </c>
@@ -2756,22 +2797,30 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1555.28</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>814.47199999999998</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3704.4076</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5500</v>
       </c>
@@ -2779,22 +2828,30 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1557.28</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>796.49599999999998</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3731.4076</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5275</v>
       </c>
@@ -2802,22 +2859,30 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1559.28</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>788.52</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>3758.4076</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5050</v>
       </c>
@@ -2825,22 +2890,30 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1561.28</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>780.54399999999998</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>3785.4076</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5017.5</v>
       </c>
@@ -2848,22 +2921,30 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1563.28</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>782.56799999999998</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>3652.4076</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4985</v>
       </c>
@@ -2871,22 +2952,30 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1523.28</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>774.59199999999998</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>3599.4076</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4957.5</v>
       </c>
@@ -2894,22 +2983,30 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1497.28</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>766.61599999999999</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>3566.4076</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4930</v>
       </c>
@@ -2917,22 +3014,30 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>1496.28</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>778.64</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>3493.4076</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5140</v>
       </c>
@@ -2940,22 +3045,30 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>1495.28</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>760.66399999999999</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>3420.4076</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5550</v>
       </c>
@@ -2963,1609 +3076,2169 @@
         <v>0</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1494.28</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>752.68799999999999</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>3447.4076</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5105</v>
       </c>
       <c r="B15">
-        <v>0.122170075</v>
+        <v>0.61085037500000006</v>
       </c>
       <c r="C15">
+        <f>0.9*B15</f>
+        <v>0.54976533750000012</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.67193541250000011</v>
+      </c>
+      <c r="E15">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1493.28</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>736.56200000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>3374.4076</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4860</v>
       </c>
       <c r="B16">
-        <v>0.24434015000000001</v>
+        <v>1.2217007500000001</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.0995306750000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.3438708250000002</v>
+      </c>
+      <c r="E16">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>1377.28</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>718.53599999999994</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>3501.4076</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5355</v>
       </c>
       <c r="B17">
-        <v>1.5096731000000001</v>
+        <v>7.5483655000000009</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.7935289500000007</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8.3032020500000012</v>
+      </c>
+      <c r="E17">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1379.28</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>700.51</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>3528.4076</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5100</v>
       </c>
       <c r="B18">
-        <v>2.77500605</v>
+        <v>13.87503025</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>12.487527225000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>15.262533275000001</v>
+      </c>
+      <c r="E18">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1381.28</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>701.48400000000004</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>3555.4076</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5112.5</v>
       </c>
       <c r="B19">
-        <v>5.9601544999999998</v>
+        <v>29.800772500000001</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>26.82069525</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>32.780849750000002</v>
+      </c>
+      <c r="E19">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1383.28</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>698.45799999999997</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>3582.4076</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4475</v>
       </c>
       <c r="B20">
-        <v>9.1453029499999996</v>
+        <v>45.72651475</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>41.153863274999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>50.299166225</v>
+      </c>
+      <c r="E20">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>1285.28</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>688.43200000000002</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>3589.4076</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4435</v>
       </c>
       <c r="B21">
-        <v>13.94484173</v>
+        <v>69.724208650000008</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>62.751787785000012</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>76.696629515000012</v>
+      </c>
+      <c r="E21">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1287.28</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>672.40599999999995</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>3536.4076</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4395</v>
       </c>
       <c r="B22">
-        <v>18.744380499999998</v>
+        <v>93.721902499999999</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>84.349712249999996</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>103.09409275</v>
+      </c>
+      <c r="E22">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>1289.28</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>656.38</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>3563.4076</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4150</v>
       </c>
       <c r="B23">
-        <v>26.916686049999999</v>
+        <v>134.58343024999999</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>121.125087225</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>148.041773275</v>
+      </c>
+      <c r="E23">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1291.28</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>643.35400000000004</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>3490.4076</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3905</v>
       </c>
       <c r="B24">
-        <v>35.0889916</v>
+        <v>175.44495799999999</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>157.90046219999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>192.98945380000001</v>
+      </c>
+      <c r="E24">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>1293.28</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>634.32799999999997</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>3517.4076</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4057.5</v>
       </c>
       <c r="B25">
-        <v>47.995387649999998</v>
+        <v>239.97693824999999</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>215.97924442499999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>263.97463207499999</v>
+      </c>
+      <c r="E25">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>1295.28</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>636.30200000000002</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>3444.4076</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4210</v>
       </c>
       <c r="B26">
-        <v>60.901783700000003</v>
+        <v>304.50891849999999</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>274.05802664999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>334.95981035</v>
+      </c>
+      <c r="E26">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1297.28</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>638.27599999999995</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>3471.4076</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4112.5</v>
       </c>
       <c r="B27">
-        <v>74.397214079999998</v>
+        <v>371.98607040000002</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>334.78746336</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>409.18467744000003</v>
+      </c>
+      <c r="E27">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>1299.28</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>625.98</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>3398.4076</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4015</v>
       </c>
       <c r="B28">
-        <v>87.892644450000006</v>
+        <v>439.46322225000006</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>395.51690002500004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>483.40954447500008</v>
+      </c>
+      <c r="E28">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1301.28</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>607.83000000000004</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>3325.4076</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007.5</v>
       </c>
       <c r="B29">
-        <v>110.5464674</v>
+        <v>552.73233700000003</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>497.45910330000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>608.00557070000013</v>
+      </c>
+      <c r="E29">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>1303.28</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>609.67999999999995</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>3352.4076</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
       <c r="B30">
-        <v>133.2002904</v>
+        <v>666.00145199999997</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>599.40130680000004</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>732.60159720000001</v>
+      </c>
+      <c r="E30">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>1305.28</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>611.53</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>3379.4076</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4310</v>
       </c>
       <c r="B31">
-        <v>160.94598769999999</v>
+        <v>804.72993849999989</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>724.25694464999992</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>885.20293234999997</v>
+      </c>
+      <c r="E31">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>1207.28</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>613.38</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>3306.4076</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4620</v>
       </c>
       <c r="B32">
-        <v>188.69168500000001</v>
+        <v>943.45842500000003</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>849.11258250000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1037.8042675000002</v>
+      </c>
+      <c r="E32">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>1209.28</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>615.23</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>3333.4076</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4720</v>
       </c>
       <c r="B33">
-        <v>203.31718860000001</v>
+        <v>1016.585943</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>914.92734870000004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1118.2445373</v>
+      </c>
+      <c r="E33">
         <v>0.35220001000000001</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>1211.28</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>617.08000000000004</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>3360.4076</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4820</v>
       </c>
       <c r="B34">
-        <v>217.94269209999999</v>
+        <v>1089.7134604999999</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>980.74211444999992</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1198.6848065500001</v>
+      </c>
+      <c r="E34">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>1213.28</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>618.92999999999995</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>3287.4076</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4825</v>
       </c>
       <c r="B35">
-        <v>238.2141986</v>
+        <v>1191.070993</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1071.9638937</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1310.1780923000001</v>
+      </c>
+      <c r="E35">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>1215.28</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>620.78</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>3214.4076</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4830</v>
       </c>
       <c r="B36">
-        <v>258.485705</v>
+        <v>1292.428525</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1163.1856725</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1421.6713775000001</v>
+      </c>
+      <c r="E36">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>1319.0320000000002</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>622.63</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>3141.4076</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5100</v>
       </c>
       <c r="B37">
-        <v>265.54975350000001</v>
+        <v>1327.7487675</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1194.97389075</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1460.5236442500002</v>
+      </c>
+      <c r="E37">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>1380.9760000000001</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>624.48</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>3068.4076</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5150</v>
       </c>
       <c r="B38">
-        <v>272.6138019</v>
+        <v>1363.0690095</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1226.76210855</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1499.3759104500002</v>
+      </c>
+      <c r="E38">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>1442.92</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>626.33000000000004</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>3195.4076</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5150</v>
       </c>
       <c r="B39">
-        <v>286.39720449999999</v>
+        <v>1431.9860225</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1288.78742025</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1575.18462475</v>
+      </c>
+      <c r="E39">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>1408.04</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>628.17999999999995</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>3280.502</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5250</v>
       </c>
       <c r="B40">
-        <v>300.1806072</v>
+        <v>1500.9030359999999</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1350.8127324</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1650.9933396000001</v>
+      </c>
+      <c r="E40">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>1473.44</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>634.03</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>3247.2719999999999</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5100</v>
       </c>
       <c r="B41">
-        <v>310.25963860000002</v>
+        <v>1551.2981930000001</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1396.1683737000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1706.4280123000003</v>
+      </c>
+      <c r="E41">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>1438.944</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>638.88</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>3414.0419999999995</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5150</v>
       </c>
       <c r="B42">
-        <v>320.33866999999998</v>
+        <v>1601.69335</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1441.524015</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1761.8626850000001</v>
+      </c>
+      <c r="E42">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>1604.4480000000001</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>655.73</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>3580.8119999999999</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5300</v>
       </c>
       <c r="B43">
-        <v>327.3678127</v>
+        <v>1636.8390635000001</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1473.1551571500002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1800.5229698500002</v>
+      </c>
+      <c r="E43">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>1770.048</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>666.58</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>3747.5819999999999</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5650</v>
       </c>
       <c r="B44">
-        <v>334.39695540000002</v>
+        <v>1671.9847770000001</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1504.7862993000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1839.1832547000004</v>
+      </c>
+      <c r="E44">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>1935.6480000000001</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>687.43</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>3718.6343999999999</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5375</v>
       </c>
       <c r="B45">
-        <v>336.11169969999997</v>
+        <v>1680.5584984999998</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1512.5026486499999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1848.61434835</v>
+      </c>
+      <c r="E45">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>1958.712</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>787.61360000000002</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>3877.0659000000001</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5300</v>
       </c>
       <c r="B46">
-        <v>337.82644399999998</v>
+        <v>1689.13222</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1520.2189980000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1858.0454420000001</v>
+      </c>
+      <c r="E46">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>1981.7760000000003</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>794.53279999999995</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>4035.4973999999997</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5625</v>
       </c>
       <c r="B47">
-        <v>343.89131570000001</v>
+        <v>1719.4565785</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1547.5109206500001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1891.4022363500001</v>
+      </c>
+      <c r="E47">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>2009.6400000000003</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>802.89200000000005</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>4193.928899999999</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5550</v>
       </c>
       <c r="B48">
-        <v>349.95618739999998</v>
+        <v>1749.780937</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1574.8028432999999</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1924.7590307</v>
+      </c>
+      <c r="E48">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>2037.5040000000001</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>811.25119999999993</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>4352.3603999999996</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5425</v>
       </c>
       <c r="B49">
-        <v>354.17978160000001</v>
+        <v>1770.8989080000001</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1593.8090172000002</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1947.9887988000003</v>
+      </c>
+      <c r="E49">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>2091.288</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>827.38639999999998</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>4510.7918999999993</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5300</v>
       </c>
       <c r="B50">
-        <v>358.40337570000003</v>
+        <v>1792.0168785000001</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1612.8151906500002</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1971.2185663500002</v>
+      </c>
+      <c r="E50">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>2145.0720000000001</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>843.52159999999992</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>5196.4369199999983</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5150</v>
       </c>
       <c r="B51">
-        <v>355.48874669999998</v>
+        <v>1777.4437334999998</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1599.6993601499998</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>1955.1881068499999</v>
+      </c>
+      <c r="E51">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>2193.1680000000001</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>857.95040000000006</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>5312.9494800000002</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>352.57411769999999</v>
+        <v>1762.8705884999999</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1586.5835296499999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>1939.1576473500002</v>
+      </c>
+      <c r="E52">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>2241.2640000000001</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>832.37919999999997</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>5429.4620400000003</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
       <c r="B53">
-        <v>347.5825974</v>
+        <v>1737.9129869999999</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1564.1216883</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>1911.7042857000001</v>
+      </c>
+      <c r="E53">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>2279.4720000000002</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>843.84159999999997</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>5545.9746000000005</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5100</v>
       </c>
       <c r="B54">
-        <v>342.59107699999998</v>
+        <v>1712.955385</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1541.6598465</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>1884.2509235000002</v>
+      </c>
+      <c r="E54">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>2317.6800000000003</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>848.10400000000004</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>5662.4871600000006</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5150</v>
       </c>
       <c r="B55">
-        <v>335.38740569999999</v>
+        <v>1676.9370285</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1509.2433256500001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>1844.6307313500001</v>
+      </c>
+      <c r="E55">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>2355.864</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>852.3664</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>5778.9997199999998</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5200</v>
       </c>
       <c r="B56">
-        <v>328.18373430000003</v>
+        <v>1640.9186715000001</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1476.8268043500002</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>1805.0105386500002</v>
+      </c>
+      <c r="E56">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>2394.0480000000002</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>856.62879999999996</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>5895.5122799999999</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5200</v>
       </c>
       <c r="B57">
-        <v>317.71637659999999</v>
+        <v>1588.5818829999998</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1429.7236946999999</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>1747.4400713</v>
+      </c>
+      <c r="E57">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>2404.4160000000002</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>860.89120000000003</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>6012.0248399999991</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5800</v>
       </c>
       <c r="B58">
-        <v>307.24901890000001</v>
+        <v>1536.2450945000001</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1382.62058505</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>1689.8696039500003</v>
+      </c>
+      <c r="E58">
         <v>1.04989998</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>2414.7840000000001</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>864.03520000000003</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>6128.5374000000002</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5850</v>
       </c>
       <c r="B59">
-        <v>302.94688689999998</v>
+        <v>1514.7344344999999</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1363.26099105</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>1666.20787795</v>
+      </c>
+      <c r="E59">
         <v>1.04989998</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>2429.904</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>888.97119999999995</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>6245.0499600000003</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5900</v>
       </c>
       <c r="B60">
-        <v>298.64475479999999</v>
+        <v>1493.223774</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1343.9013966</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>1642.5461514000001</v>
+      </c>
+      <c r="E60">
         <v>1.04989998</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>2445.0239999999999</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>881.50720000000001</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>6238.4219999999978</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6050</v>
       </c>
       <c r="B61">
-        <v>275.68114350000002</v>
+        <v>1378.4057175</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1240.5651457500001</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>1516.2462892500002</v>
+      </c>
+      <c r="E61">
         <v>1.04989998</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>2470.6560000000004</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>885.19679999999994</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>6231.7940399999998</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6100</v>
       </c>
       <c r="B62">
-        <v>252.7175321</v>
+        <v>1263.5876605000001</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1137.2288944500001</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>1389.9464265500003</v>
+      </c>
+      <c r="E62">
         <v>1.04989998</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>2496.288</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>928.88639999999998</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>6225.1660799999991</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6150</v>
       </c>
       <c r="B63">
-        <v>236.1373073</v>
+        <v>1180.6865365000001</v>
       </c>
       <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1062.6178828500001</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>1298.7551901500003</v>
+      </c>
+      <c r="E63">
         <v>1.04989998</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>2521.5840000000007</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>996.47519999999986</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>6218.5381200000002</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
       <c r="B64">
-        <v>219.55708240000001</v>
+        <v>1097.7854120000002</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
+        <v>988.00687080000023</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>1207.5639532000002</v>
+      </c>
+      <c r="E64">
         <v>1.04989998</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>2546.8800000000006</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>1004.0639999999999</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>6211.9101600000004</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6150</v>
       </c>
       <c r="B65">
-        <v>205.67332579999999</v>
+        <v>1028.3666289999999</v>
       </c>
       <c r="C65">
+        <f t="shared" si="0"/>
+        <v>925.52996609999991</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>1131.2032919000001</v>
+      </c>
+      <c r="E65">
         <v>1.04989998</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>2521.6320000000001</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>996.4896</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>6205.2821999999996</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6100</v>
       </c>
       <c r="B66">
-        <v>191.78956909999999</v>
+        <v>958.94784549999997</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
+        <v>863.05306095000003</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>1054.84263005</v>
+      </c>
+      <c r="E66">
         <v>1.04989998</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>2496.3840000000005</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>988.91519999999991</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>6198.6542400000008</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6050</v>
       </c>
       <c r="B67">
-        <v>174.74248</v>
+        <v>873.7124</v>
       </c>
       <c r="C67">
+        <f t="shared" ref="C67:C97" si="2">0.9*B67</f>
+        <v>786.34116000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D97" si="3">B67*1.1</f>
+        <v>961.08364000000006</v>
+      </c>
+      <c r="E67">
         <v>1.04989998</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>2470.7040000000002</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>921.21119999999996</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>6192.0262799999991</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6000</v>
       </c>
       <c r="B68">
-        <v>157.695391</v>
+        <v>788.47695499999998</v>
       </c>
       <c r="C68">
+        <f t="shared" si="2"/>
+        <v>709.62925949999999</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>867.32465050000008</v>
+      </c>
+      <c r="E68">
         <v>1.04989998</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>2445.0239999999999</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>913.5071999999999</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>6185.3983199999993</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4945</v>
       </c>
       <c r="B69">
-        <v>133.71078679999999</v>
+        <v>668.55393400000003</v>
       </c>
       <c r="C69">
+        <f t="shared" si="2"/>
+        <v>601.6985406</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>735.40932740000005</v>
+      </c>
+      <c r="E69">
         <v>1.04989998</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>2374.9680000000003</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>910.49039999999991</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>6178.7703599999995</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4590</v>
       </c>
       <c r="B70">
-        <v>109.7261826</v>
+        <v>548.63091299999996</v>
       </c>
       <c r="C70">
+        <f t="shared" si="2"/>
+        <v>493.76782169999996</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>603.49400430000003</v>
+      </c>
+      <c r="E70">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>2304.9119999999998</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>871.47359999999992</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>6172.1423999999997</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4820</v>
       </c>
       <c r="B71">
-        <v>84.681316679999995</v>
+        <v>423.40658339999999</v>
       </c>
       <c r="C71">
+        <f t="shared" si="2"/>
+        <v>381.06592505999998</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>465.74724174000005</v>
+      </c>
+      <c r="E71">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>2234.8800000000006</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>790.46400000000006</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>5898.4967999999999</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5050</v>
       </c>
       <c r="B72">
-        <v>59.636450750000002</v>
+        <v>298.18225375000003</v>
       </c>
       <c r="C72">
+        <f t="shared" si="2"/>
+        <v>268.36402837500003</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>328.00047912500008</v>
+      </c>
+      <c r="E72">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>2164.848</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>769.45439999999996</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>5624.8512000000001</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5150</v>
       </c>
       <c r="B73">
-        <v>48.619327679999998</v>
+        <v>243.09663839999999</v>
       </c>
       <c r="C73">
+        <f t="shared" si="2"/>
+        <v>218.78697456</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>267.40630224</v>
+      </c>
+      <c r="E73">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>2128.944</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>738.25439999999992</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>5351.2055999999993</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5250</v>
       </c>
       <c r="B74">
-        <v>37.6022046</v>
+        <v>188.01102299999999</v>
       </c>
       <c r="C74">
+        <f t="shared" si="2"/>
+        <v>169.2099207</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>206.81212530000002</v>
+      </c>
+      <c r="E74">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>2093.0400000000004</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>707.05439999999999</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>4585.8893999999991</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5250</v>
       </c>
       <c r="B75">
-        <v>27.741334049999999</v>
+        <v>138.70667025</v>
       </c>
       <c r="C75">
+        <f t="shared" si="2"/>
+        <v>124.836003225</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>152.57733727500002</v>
+      </c>
+      <c r="E75">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>2065.2720000000004</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>705.85439999999994</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>4361.6143500000007</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5250</v>
       </c>
       <c r="B76">
-        <v>17.880463500000001</v>
+        <v>89.402317500000009</v>
       </c>
       <c r="C76">
+        <f t="shared" si="2"/>
+        <v>80.462085750000014</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>98.342549250000019</v>
+      </c>
+      <c r="E76">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>2037.5040000000001</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>704.65440000000001</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>4137.3392999999996</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5775</v>
       </c>
       <c r="B77">
-        <v>12.8889432</v>
+        <v>64.444716</v>
       </c>
       <c r="C77">
+        <f t="shared" si="2"/>
+        <v>58.0002444</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>70.8891876</v>
+      </c>
+      <c r="E77">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>1935.6239999999998</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>703.45439999999996</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>3913.0642499999994</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5800</v>
       </c>
       <c r="B78">
-        <v>7.8974228999999996</v>
+        <v>39.487114499999997</v>
       </c>
       <c r="C78">
+        <f t="shared" si="2"/>
+        <v>35.538403049999999</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>43.435825950000002</v>
+      </c>
+      <c r="E78">
         <v>1.04989998</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>1833.7439999999999</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>702.25439999999992</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>3688.7891999999997</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5997</v>
       </c>
       <c r="B79">
-        <v>4.6250100999999999</v>
+        <v>23.1250505</v>
       </c>
       <c r="C79">
+        <f t="shared" si="2"/>
+        <v>20.812545450000002</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>25.437555550000003</v>
+      </c>
+      <c r="E79">
         <v>1.04989998</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>1731.864</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>696.55920000000003</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>3464.5141500000004</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5840</v>
       </c>
       <c r="B80">
-        <v>1.3525973</v>
+        <v>6.7629865000000002</v>
       </c>
       <c r="C80">
+        <f t="shared" si="2"/>
+        <v>6.0866878500000006</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>7.4392851500000008</v>
+      </c>
+      <c r="E80">
         <v>1.04989998</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>1629.9840000000002</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>710.99519999999995</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>3240.2390999999998</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5920</v>
       </c>
       <c r="B81">
-        <v>0.711204375</v>
+        <v>3.5560218749999999</v>
       </c>
       <c r="C81">
+        <f t="shared" si="2"/>
+        <v>3.2004196875000002</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>3.9116240625000001</v>
+      </c>
+      <c r="E81">
         <v>1.04989998</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>1540.848</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>684.25439999999992</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>3015.9640499999996</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6000</v>
       </c>
       <c r="B82">
-        <v>6.9811449999999997E-2</v>
+        <v>0.34905724999999999</v>
       </c>
       <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0.31415152499999999</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0.38396297500000004</v>
+      </c>
+      <c r="E82">
         <v>1.04989998</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>1551.712</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>675.5136</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>3138.62</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6100</v>
       </c>
       <c r="B83">
-        <v>3.4905724999999999E-2</v>
+        <v>0.17452862499999999</v>
       </c>
       <c r="C83">
+        <f t="shared" si="2"/>
+        <v>0.15707576249999999</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0.19198148750000002</v>
+      </c>
+      <c r="E83">
         <v>1.04989998</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>1562.576</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>648.77279999999996</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>3243.0491999999995</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6250</v>
       </c>
@@ -4573,22 +5246,30 @@
         <v>0</v>
       </c>
       <c r="C84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>1.04989998</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>1573.4400000000003</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>722.03200000000004</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>2959.7543999999998</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5850</v>
       </c>
@@ -4596,22 +5277,30 @@
         <v>0</v>
       </c>
       <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>1.04989998</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>1585.303999999996</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>717</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>2976.4596000000001</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5950</v>
       </c>
@@ -4619,22 +5308,30 @@
         <v>0</v>
       </c>
       <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>1.04989998</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>1580</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>711.96799999999996</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>3053.1648</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6150</v>
       </c>
@@ -4642,22 +5339,30 @@
         <v>0</v>
       </c>
       <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>1.04989998</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>1574.696000000004</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>706.93600000000004</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>3169.87</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5750</v>
       </c>
@@ -4665,22 +5370,30 @@
         <v>0</v>
       </c>
       <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>1.04989998</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>1569.392000000008</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>701.904</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>3102.5752000000102</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5500</v>
       </c>
@@ -4688,22 +5401,30 @@
         <v>0</v>
       </c>
       <c r="C89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>1.04989998</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>1564.088000000012</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>696.87200000000007</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>3135.2804000000101</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5750</v>
       </c>
@@ -4711,22 +5432,30 @@
         <v>0</v>
       </c>
       <c r="C90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>1558.784000000016</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>691.84</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>3167.98560000002</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6075</v>
       </c>
@@ -4734,22 +5463,30 @@
         <v>0</v>
       </c>
       <c r="C91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>1553.48000000002</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>686.80799999999999</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>3200.6908000000299</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6400</v>
       </c>
@@ -4757,22 +5494,30 @@
         <v>0</v>
       </c>
       <c r="C92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>1548.176000000024</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>681.77600000000007</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>3353.3960000000402</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6025</v>
       </c>
@@ -4780,22 +5525,30 @@
         <v>0</v>
       </c>
       <c r="C93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>1542.872000000028</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>676.74400000000003</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>3386.1012000000401</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5650</v>
       </c>
@@ -4803,22 +5556,30 @@
         <v>0</v>
       </c>
       <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>1537.568000000032</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>671.71199999999999</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>3318.80640000005</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5750</v>
       </c>
@@ -4826,22 +5587,30 @@
         <v>0</v>
       </c>
       <c r="C95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>1532.264000000036</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>666.68000000000006</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>3451.5116000000598</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5800</v>
       </c>
@@ -4849,22 +5618,30 @@
         <v>0</v>
       </c>
       <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>1526.9600000000401</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>661.64800000000002</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>3584.2168000000702</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5850</v>
       </c>
@@ -4872,18 +5649,26 @@
         <v>0</v>
       </c>
       <c r="C97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>0.65550003000000001</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>1521.6560000000441</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>656.61599999999999</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>3616.9220000000801</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>95</v>
       </c>
     </row>

--- a/input_IES.xlsx
+++ b/input_IES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EF14DFDC-760C-41CE-A4B8-D9031AF000D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C96BF840-27E1-446C-8D86-C85B84DE0492}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2653,7 +2653,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C2" sqref="C2:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2704,11 +2704,11 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>0.9*B2</f>
+        <f>0.5*B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>B2*1.1</f>
+        <f>B2*1.5</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -2735,11 +2735,11 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">0.9*B3</f>
+        <f t="shared" ref="C3:C66" si="0">0.5*B3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">B3*1.1</f>
+        <f t="shared" ref="D3:D66" si="1">B3*1.5</f>
         <v>0</v>
       </c>
       <c r="E3">
@@ -3107,12 +3107,12 @@
         <v>0.61085037500000006</v>
       </c>
       <c r="C15">
-        <f>0.9*B15</f>
-        <v>0.54976533750000012</v>
+        <f t="shared" si="0"/>
+        <v>0.30542518750000003</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.67193541250000011</v>
+        <v>0.91627556250000008</v>
       </c>
       <c r="E15">
         <v>0.35220001000000001</v>
@@ -3139,11 +3139,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1.0995306750000002</v>
+        <v>0.61085037500000006</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.3438708250000002</v>
+        <v>1.8325511250000002</v>
       </c>
       <c r="E16">
         <v>0.35220001000000001</v>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>6.7935289500000007</v>
+        <v>3.7741827500000005</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>8.3032020500000012</v>
+        <v>11.322548250000001</v>
       </c>
       <c r="E17">
         <v>0.35220001000000001</v>
@@ -3201,11 +3201,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>12.487527225000001</v>
+        <v>6.937515125</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>15.262533275000001</v>
+        <v>20.812545374999999</v>
       </c>
       <c r="E18">
         <v>0.35220001000000001</v>
@@ -3232,11 +3232,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>26.82069525</v>
+        <v>14.90038625</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>32.780849750000002</v>
+        <v>44.701158750000005</v>
       </c>
       <c r="E19">
         <v>0.35220001000000001</v>
@@ -3263,11 +3263,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>41.153863274999999</v>
+        <v>22.863257375</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>50.299166225</v>
+        <v>68.589772124999996</v>
       </c>
       <c r="E20">
         <v>0.35220001000000001</v>
@@ -3294,11 +3294,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>62.751787785000012</v>
+        <v>34.862104325000004</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>76.696629515000012</v>
+        <v>104.58631297500001</v>
       </c>
       <c r="E21">
         <v>0.35220001000000001</v>
@@ -3325,11 +3325,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>84.349712249999996</v>
+        <v>46.860951249999999</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>103.09409275</v>
+        <v>140.58285375</v>
       </c>
       <c r="E22">
         <v>0.35220001000000001</v>
@@ -3356,11 +3356,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>121.125087225</v>
+        <v>67.291715124999996</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>148.041773275</v>
+        <v>201.87514537499999</v>
       </c>
       <c r="E23">
         <v>0.35220001000000001</v>
@@ -3387,11 +3387,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>157.90046219999999</v>
+        <v>87.722478999999993</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>192.98945380000001</v>
+        <v>263.16743699999995</v>
       </c>
       <c r="E24">
         <v>0.35220001000000001</v>
@@ -3418,11 +3418,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>215.97924442499999</v>
+        <v>119.98846912499999</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>263.97463207499999</v>
+        <v>359.96540737499998</v>
       </c>
       <c r="E25">
         <v>0.35220001000000001</v>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>274.05802664999999</v>
+        <v>152.25445925</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>334.95981035</v>
+        <v>456.76337775000002</v>
       </c>
       <c r="E26">
         <v>0.35220001000000001</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>334.78746336</v>
+        <v>185.99303520000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>409.18467744000003</v>
+        <v>557.97910560000003</v>
       </c>
       <c r="E27">
         <v>0.35220001000000001</v>
@@ -3511,11 +3511,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>395.51690002500004</v>
+        <v>219.73161112500003</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>483.40954447500008</v>
+        <v>659.19483337500014</v>
       </c>
       <c r="E28">
         <v>0.35220001000000001</v>
@@ -3542,11 +3542,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>497.45910330000004</v>
+        <v>276.36616850000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>608.00557070000013</v>
+        <v>829.0985055000001</v>
       </c>
       <c r="E29">
         <v>0.35220001000000001</v>
@@ -3573,11 +3573,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>599.40130680000004</v>
+        <v>333.00072599999999</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>732.60159720000001</v>
+        <v>999.00217799999996</v>
       </c>
       <c r="E30">
         <v>0.35220001000000001</v>
@@ -3604,11 +3604,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>724.25694464999992</v>
+        <v>402.36496924999994</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>885.20293234999997</v>
+        <v>1207.0949077499999</v>
       </c>
       <c r="E31">
         <v>0.35220001000000001</v>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>849.11258250000003</v>
+        <v>471.72921250000002</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1037.8042675000002</v>
+        <v>1415.1876375000002</v>
       </c>
       <c r="E32">
         <v>0.35220001000000001</v>
@@ -3666,11 +3666,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>914.92734870000004</v>
+        <v>508.29297150000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>1118.2445373</v>
+        <v>1524.8789145000001</v>
       </c>
       <c r="E33">
         <v>0.35220001000000001</v>
@@ -3697,11 +3697,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>980.74211444999992</v>
+        <v>544.85673024999994</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>1198.6848065500001</v>
+        <v>1634.5701907499997</v>
       </c>
       <c r="E34">
         <v>0.65550003000000001</v>
@@ -3728,11 +3728,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>1071.9638937</v>
+        <v>595.53549650000002</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>1310.1780923000001</v>
+        <v>1786.6064895</v>
       </c>
       <c r="E35">
         <v>0.65550003000000001</v>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>1163.1856725</v>
+        <v>646.21426250000002</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>1421.6713775000001</v>
+        <v>1938.6427874999999</v>
       </c>
       <c r="E36">
         <v>0.65550003000000001</v>
@@ -3790,11 +3790,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1194.97389075</v>
+        <v>663.87438374999999</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>1460.5236442500002</v>
+        <v>1991.6231512499999</v>
       </c>
       <c r="E37">
         <v>0.65550003000000001</v>
@@ -3821,11 +3821,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>1226.76210855</v>
+        <v>681.53450475</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>1499.3759104500002</v>
+        <v>2044.60351425</v>
       </c>
       <c r="E38">
         <v>0.65550003000000001</v>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1288.78742025</v>
+        <v>715.99301125</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>1575.18462475</v>
+        <v>2147.9790337499999</v>
       </c>
       <c r="E39">
         <v>0.65550003000000001</v>
@@ -3883,11 +3883,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1350.8127324</v>
+        <v>750.45151799999996</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>1650.9933396000001</v>
+        <v>2251.354554</v>
       </c>
       <c r="E40">
         <v>0.65550003000000001</v>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>1396.1683737000001</v>
+        <v>775.64909650000004</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>1706.4280123000003</v>
+        <v>2326.9472894999999</v>
       </c>
       <c r="E41">
         <v>0.65550003000000001</v>
@@ -3945,11 +3945,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1441.524015</v>
+        <v>800.846675</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>1761.8626850000001</v>
+        <v>2402.5400250000002</v>
       </c>
       <c r="E42">
         <v>0.65550003000000001</v>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>1473.1551571500002</v>
+        <v>818.41953175000003</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>1800.5229698500002</v>
+        <v>2455.2585952500003</v>
       </c>
       <c r="E43">
         <v>0.65550003000000001</v>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1504.7862993000001</v>
+        <v>835.99238850000006</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>1839.1832547000004</v>
+        <v>2507.9771655000004</v>
       </c>
       <c r="E44">
         <v>0.65550003000000001</v>
@@ -4038,11 +4038,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>1512.5026486499999</v>
+        <v>840.27924924999991</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>1848.61434835</v>
+        <v>2520.8377477499998</v>
       </c>
       <c r="E45">
         <v>0.65550003000000001</v>
@@ -4069,11 +4069,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>1520.2189980000001</v>
+        <v>844.56610999999998</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1858.0454420000001</v>
+        <v>2533.6983300000002</v>
       </c>
       <c r="E46">
         <v>0.65550003000000001</v>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>1547.5109206500001</v>
+        <v>859.72828924999999</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>1891.4022363500001</v>
+        <v>2579.1848677500002</v>
       </c>
       <c r="E47">
         <v>0.65550003000000001</v>
@@ -4131,11 +4131,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>1574.8028432999999</v>
+        <v>874.8904685</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>1924.7590307</v>
+        <v>2624.6714055000002</v>
       </c>
       <c r="E48">
         <v>0.65550003000000001</v>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1593.8090172000002</v>
+        <v>885.44945400000006</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>1947.9887988000003</v>
+        <v>2656.3483620000002</v>
       </c>
       <c r="E49">
         <v>0.65550003000000001</v>
@@ -4193,11 +4193,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>1612.8151906500002</v>
+        <v>896.00843925000004</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>1971.2185663500002</v>
+        <v>2688.0253177499999</v>
       </c>
       <c r="E50">
         <v>0.65550003000000001</v>
@@ -4224,11 +4224,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>1599.6993601499998</v>
+        <v>888.72186674999989</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>1955.1881068499999</v>
+        <v>2666.1656002499994</v>
       </c>
       <c r="E51">
         <v>0.65550003000000001</v>
@@ -4255,11 +4255,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>1586.5835296499999</v>
+        <v>881.43529424999997</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>1939.1576473500002</v>
+        <v>2644.3058827499999</v>
       </c>
       <c r="E52">
         <v>0.65550003000000001</v>
@@ -4286,11 +4286,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1564.1216883</v>
+        <v>868.95649349999997</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>1911.7042857000001</v>
+        <v>2606.8694805</v>
       </c>
       <c r="E53">
         <v>0.65550003000000001</v>
@@ -4317,11 +4317,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>1541.6598465</v>
+        <v>856.47769249999999</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>1884.2509235000002</v>
+        <v>2569.4330774999999</v>
       </c>
       <c r="E54">
         <v>0.65550003000000001</v>
@@ -4348,11 +4348,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1509.2433256500001</v>
+        <v>838.46851425</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>1844.6307313500001</v>
+        <v>2515.4055427499998</v>
       </c>
       <c r="E55">
         <v>0.65550003000000001</v>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>1476.8268043500002</v>
+        <v>820.45933575000004</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>1805.0105386500002</v>
+        <v>2461.3780072500003</v>
       </c>
       <c r="E56">
         <v>0.65550003000000001</v>
@@ -4410,11 +4410,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1429.7236946999999</v>
+        <v>794.29094149999992</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>1747.4400713</v>
+        <v>2382.8728244999998</v>
       </c>
       <c r="E57">
         <v>0.65550003000000001</v>
@@ -4441,11 +4441,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1382.62058505</v>
+        <v>768.12254725000003</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>1689.8696039500003</v>
+        <v>2304.3676417500001</v>
       </c>
       <c r="E58">
         <v>1.04989998</v>
@@ -4472,11 +4472,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1363.26099105</v>
+        <v>757.36721724999995</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1666.20787795</v>
+        <v>2272.1016517499997</v>
       </c>
       <c r="E59">
         <v>1.04989998</v>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1343.9013966</v>
+        <v>746.61188700000002</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>1642.5461514000001</v>
+        <v>2239.8356610000001</v>
       </c>
       <c r="E60">
         <v>1.04989998</v>
@@ -4534,11 +4534,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1240.5651457500001</v>
+        <v>689.20285875000002</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>1516.2462892500002</v>
+        <v>2067.6085762500002</v>
       </c>
       <c r="E61">
         <v>1.04989998</v>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>1137.2288944500001</v>
+        <v>631.79383025000004</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>1389.9464265500003</v>
+        <v>1895.38149075</v>
       </c>
       <c r="E62">
         <v>1.04989998</v>
@@ -4596,11 +4596,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>1062.6178828500001</v>
+        <v>590.34326825000005</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>1298.7551901500003</v>
+        <v>1771.02980475</v>
       </c>
       <c r="E63">
         <v>1.04989998</v>
@@ -4627,11 +4627,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>988.00687080000023</v>
+        <v>548.89270600000009</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>1207.5639532000002</v>
+        <v>1646.6781180000003</v>
       </c>
       <c r="E64">
         <v>1.04989998</v>
@@ -4658,11 +4658,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>925.52996609999991</v>
+        <v>514.18331449999994</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>1131.2032919000001</v>
+        <v>1542.5499434999997</v>
       </c>
       <c r="E65">
         <v>1.04989998</v>
@@ -4689,11 +4689,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>863.05306095000003</v>
+        <v>479.47392274999999</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>1054.84263005</v>
+        <v>1438.42176825</v>
       </c>
       <c r="E66">
         <v>1.04989998</v>
@@ -4719,12 +4719,12 @@
         <v>873.7124</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C97" si="2">0.9*B67</f>
-        <v>786.34116000000006</v>
+        <f t="shared" ref="C67:C97" si="2">0.5*B67</f>
+        <v>436.8562</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D97" si="3">B67*1.1</f>
-        <v>961.08364000000006</v>
+        <f t="shared" ref="D67:D97" si="3">B67*1.5</f>
+        <v>1310.5686000000001</v>
       </c>
       <c r="E67">
         <v>1.04989998</v>
@@ -4751,11 +4751,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>709.62925949999999</v>
+        <v>394.23847749999999</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>867.32465050000008</v>
+        <v>1182.7154324999999</v>
       </c>
       <c r="E68">
         <v>1.04989998</v>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>601.6985406</v>
+        <v>334.27696700000001</v>
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>735.40932740000005</v>
+        <v>1002.830901</v>
       </c>
       <c r="E69">
         <v>1.04989998</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>493.76782169999996</v>
+        <v>274.31545649999998</v>
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>603.49400430000003</v>
+        <v>822.94636949999995</v>
       </c>
       <c r="E70">
         <v>0.65550003000000001</v>
@@ -4844,11 +4844,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>381.06592505999998</v>
+        <v>211.70329169999999</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>465.74724174000005</v>
+        <v>635.10987509999995</v>
       </c>
       <c r="E71">
         <v>0.65550003000000001</v>
@@ -4875,11 +4875,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>268.36402837500003</v>
+        <v>149.09112687500001</v>
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>328.00047912500008</v>
+        <v>447.27338062500007</v>
       </c>
       <c r="E72">
         <v>0.65550003000000001</v>
@@ -4906,11 +4906,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>218.78697456</v>
+        <v>121.54831919999999</v>
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>267.40630224</v>
+        <v>364.6449576</v>
       </c>
       <c r="E73">
         <v>0.65550003000000001</v>
@@ -4937,11 +4937,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>169.2099207</v>
+        <v>94.005511499999997</v>
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>206.81212530000002</v>
+        <v>282.01653449999998</v>
       </c>
       <c r="E74">
         <v>0.65550003000000001</v>
@@ -4968,11 +4968,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>124.836003225</v>
+        <v>69.353335125000001</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>152.57733727500002</v>
+        <v>208.060005375</v>
       </c>
       <c r="E75">
         <v>0.65550003000000001</v>
@@ -4999,11 +4999,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>80.462085750000014</v>
+        <v>44.701158750000005</v>
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>98.342549250000019</v>
+        <v>134.10347625000003</v>
       </c>
       <c r="E76">
         <v>0.65550003000000001</v>
@@ -5030,11 +5030,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>58.0002444</v>
+        <v>32.222358</v>
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>70.8891876</v>
+        <v>96.667074</v>
       </c>
       <c r="E77">
         <v>0.65550003000000001</v>
@@ -5061,11 +5061,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>35.538403049999999</v>
+        <v>19.743557249999999</v>
       </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>43.435825950000002</v>
+        <v>59.230671749999999</v>
       </c>
       <c r="E78">
         <v>1.04989998</v>
@@ -5092,11 +5092,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>20.812545450000002</v>
+        <v>11.56252525</v>
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>25.437555550000003</v>
+        <v>34.687575750000001</v>
       </c>
       <c r="E79">
         <v>1.04989998</v>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>6.0866878500000006</v>
+        <v>3.3814932500000001</v>
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>7.4392851500000008</v>
+        <v>10.14447975</v>
       </c>
       <c r="E80">
         <v>1.04989998</v>
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>3.2004196875000002</v>
+        <v>1.7780109374999999</v>
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>3.9116240625000001</v>
+        <v>5.3340328125000003</v>
       </c>
       <c r="E81">
         <v>1.04989998</v>
@@ -5185,11 +5185,11 @@
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
-        <v>0.31415152499999999</v>
+        <v>0.17452862499999999</v>
       </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>0.38396297500000004</v>
+        <v>0.52358587499999998</v>
       </c>
       <c r="E82">
         <v>1.04989998</v>
@@ -5216,11 +5216,11 @@
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
-        <v>0.15707576249999999</v>
+        <v>8.7264312499999996E-2</v>
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>0.19198148750000002</v>
+        <v>0.26179293749999999</v>
       </c>
       <c r="E83">
         <v>1.04989998</v>
